--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1430597.48824814</v>
+        <v>1506127.157912945</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>218.9770657633717</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>80.63410908555618</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="F4" t="n">
-        <v>128.437208752526</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>59.53544153398364</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>304.5825544191703</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.3028656524355</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>109.9493368428669</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>283.9460677916765</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>3.818876620805881</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>20.30061708736365</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.514855731544754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>108.3588681544792</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>55.22013099942621</v>
       </c>
       <c r="C16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>34.56420282848784</v>
       </c>
       <c r="C19" t="n">
-        <v>33.66791875440828</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>273.4981081486107</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>138.9281674874321</v>
       </c>
       <c r="I25" t="n">
-        <v>106.5579632528932</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.5989393554742</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>91.53247030507161</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>127.8193552768836</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>277.2719875498829</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>42.02510219382533</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>6.712890951325189</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>34.14957094459579</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>111.2944539985318</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>50.03633552408541</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.141365880777</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274026</v>
+        <v>1399.100814488751</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1013.312561890506</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>602.3266571008987</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2560.6718065128</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2306.910021150891</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2306.910021150891</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1954.141365880777</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>1954.141365880777</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.141365880777</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C4" t="n">
-        <v>398.3338608103785</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D4" t="n">
-        <v>398.3338608103785</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148976</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4604,13 +4606,13 @@
         <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1784.763701299258</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1784.763701299258</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349972</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="D7" t="n">
-        <v>338.4002221349972</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>338.4002221349972</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>338.4002221349972</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>169.4004218733296</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>169.4004218733296</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>587.6521288551403</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2024.243304314563</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2024.243304314563</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.243304314563</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610023</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610023</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610023</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.3646104958056</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>651.5901741291667</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>501.473534716831</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>353.5604411344378</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>206.6704936365275</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>206.6704936365275</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5288,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5363,13 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359327</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>3203.974306639288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>3691.258913613709</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916368</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1006.27269220504</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.92115703528</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.92115703528</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y19" t="n">
-        <v>1187.92115703528</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.8045051785809</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>998.8701400457812</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V22" t="n">
-        <v>998.8701400457812</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W22" t="n">
-        <v>709.4529700088207</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X22" t="n">
-        <v>709.4529700088207</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.4529700088207</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.3809108364826</v>
+        <v>872.6898113736385</v>
       </c>
       <c r="C25" t="n">
-        <v>523.4447279085757</v>
+        <v>703.7536284457316</v>
       </c>
       <c r="D25" t="n">
-        <v>523.4447279085757</v>
+        <v>553.6369890333958</v>
       </c>
       <c r="E25" t="n">
-        <v>523.4447279085757</v>
+        <v>405.7238954510027</v>
       </c>
       <c r="F25" t="n">
-        <v>523.4447279085757</v>
+        <v>405.7238954510027</v>
       </c>
       <c r="G25" t="n">
-        <v>355.2694062283963</v>
+        <v>237.5485737708233</v>
       </c>
       <c r="H25" t="n">
-        <v>204.8513977763396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.3809108364826</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,16 +6217,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6242,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3443.999848753678</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M27" t="n">
-        <v>3751.319982033639</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>4081.182609697672</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>4360.722674916369</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861031</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>488.0052342069292</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>558.0926555785013</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.0926555785013</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>3443.999848753677</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>3751.319982033639</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>376.4441907482616</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>376.4441907482616</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>226.3275513359258</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>226.3275513359258</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>226.3275513359258</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>226.3275513359258</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>675.0304288687223</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X31" t="n">
-        <v>447.040877970705</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.040877970705</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6783,7 +6785,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1514.038914395485</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.13917884751</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919603</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507268</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>139.666689635867</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>139.666689635867</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>139.666689635867</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>139.666689635867</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014292</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.78764367775</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6953,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>739.1390269937325</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="C40" t="n">
-        <v>570.2028440658256</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="D40" t="n">
-        <v>420.0862046534899</v>
+        <v>559.3346142065632</v>
       </c>
       <c r="E40" t="n">
-        <v>272.1731110710967</v>
+        <v>411.4215206241701</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>411.4215206241701</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>243.2461989439907</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.92115703528</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X40" t="n">
-        <v>959.9316061372626</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.1390269937325</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7491,13 +7493,13 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>732.1698305154059</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
         <v>1843.901542059518</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="G43" t="n">
         <v>359.1696912903951</v>
@@ -7600,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>1113.513998854602</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,22 +8774,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>159.012100313523</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776738</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10431,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>288.4091825776757</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10601,10 +10603,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.55496021305692</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>124.6118491825111</v>
       </c>
       <c r="C16" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>145.2677773534494</v>
       </c>
       <c r="C19" t="n">
-        <v>133.5789023442196</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.73924424996665</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9.985660880104035</v>
       </c>
       <c r="I25" t="n">
-        <v>3.861282211378807</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.23304082646311</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>74.96109815830597</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>21.09447309065253</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>9.251010786708093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.39414327044666</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.7081570716061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>114.7642574229403</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.19911446484576</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>236.4866628125056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
@@ -26338,7 +26340,7 @@
         <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852505</v>
@@ -26350,10 +26352,10 @@
         <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773397</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165119</v>
+        <v>-363550.5822165121</v>
       </c>
       <c r="C6" t="n">
         <v>226417.2969980325</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980323</v>
+        <v>226417.2969980324</v>
       </c>
       <c r="E6" t="n">
         <v>-184344.9742580961</v>
       </c>
       <c r="F6" t="n">
+        <v>340815.0622188001</v>
+      </c>
+      <c r="G6" t="n">
         <v>340815.0622187998</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>340815.0622187999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>340815.0622187997</v>
       </c>
       <c r="I6" t="n">
         <v>340815.0622188</v>
@@ -26546,22 +26548,22 @@
         <v>164391.8430262069</v>
       </c>
       <c r="K6" t="n">
-        <v>340815.0622187998</v>
+        <v>340815.0622188</v>
       </c>
       <c r="L6" t="n">
         <v>340815.0622188</v>
       </c>
       <c r="M6" t="n">
-        <v>206014.0469849628</v>
+        <v>206014.0469849629</v>
       </c>
       <c r="N6" t="n">
         <v>340815.0622188</v>
       </c>
       <c r="O6" t="n">
-        <v>340815.0622187998</v>
+        <v>340815.0622187997</v>
       </c>
       <c r="P6" t="n">
-        <v>340815.0622187998</v>
+        <v>340815.0622188</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>194.8071042574233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>135.8142112721016</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>19.4295499393364</v>
       </c>
       <c r="F4" t="n">
-        <v>16.98383927040521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>323.1984001294969</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>44.65841429824269</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>20.66275613990273</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>102.196202107152</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>65.2949009257365</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>365.9122240576631</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>266.2223812492273</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.06979762055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,7 +35412,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
@@ -35492,22 +35494,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,7 +35740,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35963,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,13 +35974,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>492.2066737115359</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36218,7 +36220,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
@@ -36455,7 +36457,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336981</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36695,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36914,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336981</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -37151,10 +37153,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37321,10 +37323,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
@@ -37403,7 +37405,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37640,10 +37642,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38099,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1506127.157912945</v>
+        <v>1499110.143021233</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>218.9770657633717</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>105.0839683962665</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>127.0044127072328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.53544153398364</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>149.9110215765463</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>109.9493368428669</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>241.000675380544</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>3.818876620805881</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.82466560786678</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>20.30061708736365</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>87.90277740092519</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>108.3588681544792</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.22013099942621</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.56420282848784</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>52.34452922604881</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.9281674874321</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>78.03981937612258</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>91.53247030507161</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>127.8193552768836</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.02510219382533</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>17.30026924195955</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>180.6645312963699</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>160.0006879278784</v>
       </c>
       <c r="H40" t="n">
-        <v>34.14957094459579</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.2944539985318</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.4653217847137</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1757.366513095501</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1757.366513095501</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1399.100814488751</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1013.312561890506</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>602.3266571008987</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.505845071313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1757.366513095501</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.2302673832259</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>182.2302673832259</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>182.2302673832259</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.2302673832259</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>950.5267842059185</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>532.5629761041054</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>205.3682561401082</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.957088916128</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.817756940316</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>587.6521288551403</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>418.7159459272334</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>587.6521288551403</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4837,19 +4837,19 @@
         <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1485.892406545186</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.097842756629</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.958510780817</v>
+        <v>722.2873163082943</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="W10" t="n">
-        <v>463.9179680525992</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.2708856551157</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>820.5263570570736</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>651.5901741291667</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>501.473534716831</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>353.5604411344378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>206.6704936365275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>206.6704936365275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570736</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>820.5263570570736</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>820.5263570570736</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8104215925219</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364826</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5883316929525</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4452.039182201071</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>4197.354693995184</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.937523958223</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060206</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="23">
@@ -6074,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.6898113736385</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C25" t="n">
-        <v>703.7536284457316</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D25" t="n">
-        <v>553.6369890333958</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>405.7238954510027</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>405.7238954510027</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>237.5485737708233</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>1275.130855347408</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>1054.338276203878</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,16 +6217,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>807.0580565471719</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>638.121873619265</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>488.0052342069292</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>340.0921406245361</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>340.0921406245361</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.7065213774116</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>376.4441907482616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4441907482616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>226.3275513359258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>226.3275513359258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>226.3275513359258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>226.3275513359258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,13 +6788,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.6964226305959</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>437.6964226305959</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>287.5797832182601</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>139.666689635867</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>139.666689635867</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>139.666689635867</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>139.666689635867</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y34" t="n">
-        <v>437.6964226305959</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4512536188989</v>
+        <v>872.6898113736385</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4512536188989</v>
+        <v>703.7536284457316</v>
       </c>
       <c r="D40" t="n">
-        <v>559.3346142065632</v>
+        <v>553.6369890333958</v>
       </c>
       <c r="E40" t="n">
-        <v>411.4215206241701</v>
+        <v>405.7238954510027</v>
       </c>
       <c r="F40" t="n">
-        <v>411.4215206241701</v>
+        <v>258.8339479530923</v>
       </c>
       <c r="G40" t="n">
-        <v>243.2461989439907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188989</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>709.4512536188989</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>709.4512536188989</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4512536188989</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364826</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1313.597763704656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1089.812348494162</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>800.6837097077201</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>545.9992215018333</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>79.34404369770265</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>40.55496021305692</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,19 +23466,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.6118491825111</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>62.81120698386178</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.2677773534494</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>173.3651261629883</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>9.985660880104035</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>140.5448339759722</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>74.96109815830597</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>176.3280338692828</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>21.09447309065253</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.39414327044666</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>201.2843841101352</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>37.92012205572493</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.492880535499182</v>
       </c>
       <c r="H40" t="n">
-        <v>114.7642574229403</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.19911446484576</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>14.45548819888955</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185697</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852506</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
@@ -26352,7 +26352,7 @@
         <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
@@ -26444,10 +26444,10 @@
         <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773396</v>
@@ -26456,10 +26456,10 @@
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165121</v>
+        <v>-363550.5822165122</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980325</v>
+        <v>226417.2969980324</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980324</v>
+        <v>226417.2969980323</v>
       </c>
       <c r="E6" t="n">
-        <v>-184344.9742580961</v>
+        <v>-185319.5655178178</v>
       </c>
       <c r="F6" t="n">
-        <v>340815.0622188001</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="G6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590782</v>
       </c>
       <c r="H6" t="n">
-        <v>340815.0622187999</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="I6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590784</v>
       </c>
       <c r="J6" t="n">
-        <v>164391.8430262069</v>
+        <v>163417.2517664852</v>
       </c>
       <c r="K6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="L6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590782</v>
       </c>
       <c r="M6" t="n">
-        <v>206014.0469849629</v>
+        <v>205039.4557252412</v>
       </c>
       <c r="N6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="O6" t="n">
-        <v>340815.0622187997</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="P6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590783</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,7 +26752,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>194.8071042574233</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>281.1539702597871</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.4295499393364</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.1984001294969</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>2.020294668314961</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>102.196202107152</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>141.7331662829366</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>365.9122240576631</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>83.48513665118413</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>266.2223812492273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435302</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>450.1033124512091</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35740,10 +35740,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36694,10 +36694,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37156,7 +37156,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1499110.143021233</v>
+        <v>1504049.405870264</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>160.6556363192719</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.0839683962665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>46.49098358147252</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>149.9110215765463</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.000675380544</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>32.40159245212212</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>83.82466560786678</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>87.90277740092519</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>83.62275566270739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>140.0680651027555</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.03834299396291</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>52.34452922604881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>15.88023140885721</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.03981937612258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>17.93359706704273</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>85.85123176253083</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.30026924195955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.6645312963699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896917</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.0006879278784</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1524.727234344394</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1166.461535737644</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>780.6732831393995</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>369.6873783497919</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y2" t="n">
-        <v>2535.974978926224</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4546,22 +4546,22 @@
         <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.737983561872</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>957.4722849551219</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>957.4722849551219</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F5" t="n">
-        <v>950.5267842059185</v>
+        <v>581.5642672655068</v>
       </c>
       <c r="G5" t="n">
-        <v>532.5629761041054</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>205.3682561401082</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036447</v>
@@ -4807,13 +4807,13 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2664.420209753453</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158871</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.6610618153</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545186</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284106</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="Y8" t="n">
-        <v>722.2873163082943</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551157</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551157</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2708856551157</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>184.2708856551157</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>184.2708856551157</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610026</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551157</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551157</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551157</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551157</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5415,25 +5415,25 @@
         <v>665.6859735286132</v>
       </c>
       <c r="C16" t="n">
-        <v>496.7497906007063</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D16" t="n">
-        <v>496.7497906007063</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>220.766293035974</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>220.766293035974</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>163.9224884238847</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X22" t="n">
-        <v>612.8127116841194</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.0201325405893</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>358.8683222506741</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>358.8683222506741</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6186,13 +6186,13 @@
         <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y25" t="n">
-        <v>358.8683222506741</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>392.0201325405893</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6700,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.130855347408</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X34" t="n">
-        <v>1047.141304449391</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.666285013068</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.21084526296</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.21084526296</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>1075.21084526296</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.6898113736385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>703.7536284457316</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>553.6369890333958</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>405.7238954510027</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>258.8339479530923</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1054.338276203878</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7636,40 +7636,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>116.9087390531963</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>79.34404369770265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.81120698386178</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>26.60011880760491</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.51658824933926</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>100.4552254694147</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>173.3651261629883</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>270.6427669277338</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.5448339759722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>149.3132240315851</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3280338692828</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>139.8584236265063</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.2843841101352</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.92012205572493</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>6.492880535499182</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26328,34 +26328,34 @@
         <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="H2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852507</v>
-      </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="F4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165122</v>
+        <v>-363550.5822165123</v>
       </c>
       <c r="C6" t="n">
         <v>226417.2969980324</v>
@@ -26530,40 +26530,40 @@
         <v>226417.2969980323</v>
       </c>
       <c r="E6" t="n">
-        <v>-185319.5655178178</v>
+        <v>-184442.4333840685</v>
       </c>
       <c r="F6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928278</v>
       </c>
       <c r="G6" t="n">
-        <v>339840.4709590782</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="H6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="I6" t="n">
-        <v>339840.4709590784</v>
+        <v>340717.6030928277</v>
       </c>
       <c r="J6" t="n">
-        <v>163417.2517664852</v>
+        <v>164294.3839002345</v>
       </c>
       <c r="K6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="L6" t="n">
-        <v>339840.4709590782</v>
+        <v>340717.6030928277</v>
       </c>
       <c r="M6" t="n">
-        <v>205039.4557252412</v>
+        <v>205916.5878589901</v>
       </c>
       <c r="N6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="O6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
       <c r="P6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928274</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>253.1285337015231</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>281.1539702597871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>367.2931864393225</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.020294668314961</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7331662829366</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>22.07681012268956</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>83.48513665118413</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,31 +31530,31 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478008</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31624,19 +31624,19 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435302</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35190,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>450.1033124512091</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
